--- a/data/trans_camb/P43E-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P43E-Edad-trans_camb.xlsx
@@ -583,10 +583,10 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-14.14415369767222</v>
+        <v>-14.34760928826645</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-7.156652465320065</v>
+        <v>-7.662461787584658</v>
       </c>
     </row>
     <row r="6">
@@ -597,10 +597,10 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>3.461016920832775</v>
+        <v>2.567438692308841</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>31.06338347109915</v>
+        <v>31.61998824139885</v>
       </c>
     </row>
     <row r="7">
@@ -614,7 +614,7 @@
         <v>-0.2835648446065377</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>0.4863337132717925</v>
+        <v>0.4863337132717922</v>
       </c>
     </row>
     <row r="8">
@@ -625,10 +625,10 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.5489033055054066</v>
+        <v>-0.5563694161254134</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.3148239881868093</v>
+        <v>-0.2946768247706121</v>
       </c>
     </row>
     <row r="9">
@@ -639,10 +639,10 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.2242727115678897</v>
+        <v>0.1581037194211195</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>1.587457560068099</v>
+        <v>1.72632139123355</v>
       </c>
     </row>
     <row r="10">
@@ -671,10 +671,10 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-12.32518529700372</v>
+        <v>-12.45822874085988</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-7.696978341034918</v>
+        <v>-8.665254192594343</v>
       </c>
     </row>
     <row r="12">
@@ -685,10 +685,10 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.4334201984030508</v>
+        <v>-0.3538239857029828</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>8.228525604697792</v>
+        <v>7.718451082099717</v>
       </c>
     </row>
     <row r="13">
@@ -713,10 +713,10 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.4250285931127391</v>
+        <v>-0.4117491204883578</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.2767343058066017</v>
+        <v>-0.3030170805644283</v>
       </c>
     </row>
     <row r="15">
@@ -727,10 +727,10 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.009087348819805417</v>
+        <v>-0.01415027419576386</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.3332526441476686</v>
+        <v>0.3204014814685304</v>
       </c>
     </row>
     <row r="16">
@@ -748,7 +748,7 @@
         <v>-6.459049199765888</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>1.082146137142331</v>
+        <v>1.082146137142326</v>
       </c>
     </row>
     <row r="17">
@@ -759,10 +759,10 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-11.27721191114735</v>
+        <v>-11.55264052546077</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-4.683757536879176</v>
+        <v>-4.710601003672161</v>
       </c>
     </row>
     <row r="18">
@@ -773,10 +773,10 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-1.370675829671568</v>
+        <v>-1.16571657976401</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>7.175017867738437</v>
+        <v>6.586661791909018</v>
       </c>
     </row>
     <row r="19">
@@ -790,7 +790,7 @@
         <v>-0.2441483459848804</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>0.04090450178128448</v>
+        <v>0.04090450178128426</v>
       </c>
     </row>
     <row r="20">
@@ -801,10 +801,10 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.3988807348579739</v>
+        <v>-0.4023229863095478</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.1636956807064414</v>
+        <v>-0.1701534672196389</v>
       </c>
     </row>
     <row r="21">
@@ -815,10 +815,10 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>-0.05569504511243201</v>
+        <v>-0.04947314710806202</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.2989626787086043</v>
+        <v>0.2845638013204214</v>
       </c>
     </row>
     <row r="22">
@@ -836,7 +836,7 @@
         <v>-9.110795062106089</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>6.658091488343756</v>
+        <v>6.658091488343751</v>
       </c>
     </row>
     <row r="23">
@@ -847,10 +847,10 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-14.02981190525943</v>
+        <v>-14.33487901744282</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.4090134730272533</v>
+        <v>0.768510551859762</v>
       </c>
     </row>
     <row r="24">
@@ -861,10 +861,10 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>-3.079631671181442</v>
+        <v>-3.907532163532005</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>12.15566708482117</v>
+        <v>12.35529927679752</v>
       </c>
     </row>
     <row r="25">
@@ -878,7 +878,7 @@
         <v>-0.3746629344107077</v>
       </c>
       <c r="D25" s="6" t="n">
-        <v>0.2738004836672487</v>
+        <v>0.2738004836672485</v>
       </c>
     </row>
     <row r="26">
@@ -889,10 +889,10 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.5299692031362104</v>
+        <v>-0.5300892695976449</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.01602214063796925</v>
+        <v>0.02409465211963976</v>
       </c>
     </row>
     <row r="27">
@@ -903,10 +903,10 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>-0.1492931519163662</v>
+        <v>-0.172125643105749</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.5957052501060702</v>
+        <v>0.5777910883482883</v>
       </c>
     </row>
     <row r="28">
@@ -924,7 +924,7 @@
         <v>-4.771925815003189</v>
       </c>
       <c r="D28" s="5" t="n">
-        <v>3.417493733052612</v>
+        <v>3.417493733052607</v>
       </c>
     </row>
     <row r="29">
@@ -935,10 +935,10 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-11.56495518855074</v>
+        <v>-11.68676492321456</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-2.770637069063883</v>
+        <v>-2.940114212205082</v>
       </c>
     </row>
     <row r="30">
@@ -949,10 +949,10 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>1.451944837756698</v>
+        <v>1.202434927414856</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>9.662139150703112</v>
+        <v>9.682678325532351</v>
       </c>
     </row>
     <row r="31">
@@ -966,7 +966,7 @@
         <v>-0.2540429250551468</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>0.181937049727949</v>
+        <v>0.1819370497279487</v>
       </c>
     </row>
     <row r="32">
@@ -977,10 +977,10 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.5180861990653097</v>
+        <v>-0.5024625669175342</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.1242687533852609</v>
+        <v>-0.1347487961517025</v>
       </c>
     </row>
     <row r="33">
@@ -991,10 +991,10 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.09909514870214219</v>
+        <v>0.07904125124510071</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.6720323157952023</v>
+        <v>0.6397167475811244</v>
       </c>
     </row>
     <row r="34">
@@ -1012,7 +1012,7 @@
         <v>0.067126273865456</v>
       </c>
       <c r="D34" s="5" t="n">
-        <v>4.912703374788524</v>
+        <v>4.912703374788527</v>
       </c>
     </row>
     <row r="35">
@@ -1023,10 +1023,10 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-7.258482119267764</v>
+        <v>-8.263045663496623</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-2.225878822543935</v>
+        <v>-1.796873263243885</v>
       </c>
     </row>
     <row r="36">
@@ -1037,10 +1037,10 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>7.318397874916011</v>
+        <v>7.024633263573232</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>11.19498454107843</v>
+        <v>11.10859810853496</v>
       </c>
     </row>
     <row r="37">
@@ -1054,7 +1054,7 @@
         <v>0.005421652973055971</v>
       </c>
       <c r="D37" s="6" t="n">
-        <v>0.3967890860596537</v>
+        <v>0.3967890860596539</v>
       </c>
     </row>
     <row r="38">
@@ -1065,10 +1065,10 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.4522317269684511</v>
+        <v>-0.5065920260859763</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.1323761633357696</v>
+        <v>-0.11330022447029</v>
       </c>
     </row>
     <row r="39">
@@ -1079,10 +1079,10 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>0.9405526288383698</v>
+        <v>0.7805274926559198</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>1.338360188850651</v>
+        <v>1.315912097742371</v>
       </c>
     </row>
     <row r="40">
@@ -1100,7 +1100,7 @@
         <v>-5.901505772053699</v>
       </c>
       <c r="D40" s="5" t="n">
-        <v>-0.1602339048985657</v>
+        <v>-0.1602339048985685</v>
       </c>
     </row>
     <row r="41">
@@ -1111,10 +1111,10 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-16.27837014526354</v>
+        <v>-16.03357002813382</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-9.671319998234775</v>
+        <v>-8.416285658931018</v>
       </c>
     </row>
     <row r="42">
@@ -1125,10 +1125,10 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>2.584581633006457</v>
+        <v>3.405538695292615</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>7.18573849014639</v>
+        <v>7.915375115224638</v>
       </c>
     </row>
     <row r="43">
@@ -1142,7 +1142,7 @@
         <v>-0.4192200558553862</v>
       </c>
       <c r="D43" s="6" t="n">
-        <v>-0.01138239445254789</v>
+        <v>-0.01138239445254808</v>
       </c>
     </row>
     <row r="44">
@@ -1153,10 +1153,10 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.8054476179821203</v>
+        <v>-0.7842768026558977</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.4467360472874372</v>
+        <v>-0.4275697998810672</v>
       </c>
     </row>
     <row r="45">
@@ -1167,10 +1167,10 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.3762675124213066</v>
+        <v>0.6266318198547057</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.9201881341705711</v>
+        <v>1.178301942600851</v>
       </c>
     </row>
     <row r="46">
@@ -1188,7 +1188,7 @@
         <v>-6.613810958360738</v>
       </c>
       <c r="D46" s="5" t="n">
-        <v>1.548087919728611</v>
+        <v>1.548087919728613</v>
       </c>
     </row>
     <row r="47">
@@ -1199,10 +1199,10 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-8.957050720944885</v>
+        <v>-9.042757411335495</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-0.8500192079459835</v>
+        <v>-1.133625677323119</v>
       </c>
     </row>
     <row r="48">
@@ -1213,10 +1213,10 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>-4.101570053189399</v>
+        <v>-4.034687294125354</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>4.327613756250321</v>
+        <v>4.182522167159597</v>
       </c>
     </row>
     <row r="49">
@@ -1230,7 +1230,7 @@
         <v>-0.2874795499560193</v>
       </c>
       <c r="D49" s="6" t="n">
-        <v>0.06729004219471026</v>
+        <v>0.06729004219471037</v>
       </c>
     </row>
     <row r="50">
@@ -1241,10 +1241,10 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.3702328291320151</v>
+        <v>-0.3707519697901004</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.03575517900321623</v>
+        <v>-0.04655675391752295</v>
       </c>
     </row>
     <row r="51">
@@ -1255,10 +1255,10 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>-0.1861498520394684</v>
+        <v>-0.1878282349238864</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>0.1956977736237299</v>
+        <v>0.1960234764581363</v>
       </c>
     </row>
     <row r="52">
